--- a/WebClient/Templates/CommonHouseGeneralReport.xlsx
+++ b/WebClient/Templates/CommonHouseGeneralReport.xlsx
@@ -244,10 +244,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -684,8 +684,8 @@
       <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -715,9 +715,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
@@ -746,9 +746,9 @@
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:16" s="2" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="3" t="s">
@@ -757,9 +757,9 @@
       <c r="G9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -815,7 +815,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B3:O3"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="K8:K9"/>
@@ -835,8 +834,9 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:J7"/>
+    <mergeCell ref="B3:O3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>